--- a/PowerEdges.xlsx
+++ b/PowerEdges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wany105\OneDrive - Vanderbilt\Research\ShelbyCounty_DataRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{36FEF7D7-7219-4754-AC1B-D4AA305D1D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AED4E44-96A6-474D-BF91-BCB87751197D}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{36FEF7D7-7219-4754-AC1B-D4AA305D1D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCBC51D0-B695-40CB-8F27-F69220501BCA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="907" windowWidth="14400" windowHeight="7493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -395,10 +395,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -406,10 +406,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -428,10 +428,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -439,10 +439,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
         <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -450,10 +450,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
         <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -461,10 +461,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
         <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -472,10 +472,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -483,10 +483,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
         <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -494,10 +494,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -505,10 +505,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
         <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -516,10 +516,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
         <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -527,10 +527,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
         <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -538,10 +538,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -549,10 +549,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -560,10 +560,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
         <v>41</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -571,10 +571,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
         <v>42</v>
-      </c>
-      <c r="C19" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -582,10 +582,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>47</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -593,10 +593,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
         <v>48</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -604,10 +604,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
         <v>49</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -615,10 +615,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
         <v>49</v>
-      </c>
-      <c r="C23" s="1">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -626,10 +626,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
         <v>50</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -637,10 +637,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
         <v>50</v>
-      </c>
-      <c r="C25" s="1">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -648,10 +648,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
         <v>51</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -659,10 +659,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="1">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
         <v>51</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -670,10 +670,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
         <v>45</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -681,10 +681,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
         <v>52</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -692,10 +692,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
         <v>53</v>
-      </c>
-      <c r="C30" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -703,10 +703,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
         <v>55</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -714,10 +714,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
         <v>56</v>
-      </c>
-      <c r="C32" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="1">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
         <v>56</v>
-      </c>
-      <c r="C33" s="1">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -736,10 +736,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
         <v>57</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -747,10 +747,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
         <v>58</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -758,10 +758,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
         <v>59</v>
-      </c>
-      <c r="C36" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -769,10 +769,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="1">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1">
         <v>59</v>
-      </c>
-      <c r="C37" s="1">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -780,10 +780,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1">
         <v>27</v>
-      </c>
-      <c r="C38" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -791,10 +791,10 @@
         <v>49</v>
       </c>
       <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>28</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -813,10 +813,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1">
         <v>28</v>
-      </c>
-      <c r="C41" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -824,10 +824,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
         <v>29</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -835,10 +835,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
         <v>29</v>
-      </c>
-      <c r="C43" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -846,10 +846,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="1">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1">
         <v>29</v>
-      </c>
-      <c r="C44" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -857,10 +857,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
         <v>30</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -879,10 +879,10 @@
         <v>57</v>
       </c>
       <c r="B47" s="1">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1">
         <v>30</v>
-      </c>
-      <c r="C47" s="1">
-        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -890,10 +890,10 @@
         <v>58</v>
       </c>
       <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
         <v>31</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -912,10 +912,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="1">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
         <v>31</v>
-      </c>
-      <c r="C50" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -923,10 +923,10 @@
         <v>61</v>
       </c>
       <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
         <v>32</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -945,10 +945,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="1">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1">
         <v>33</v>
-      </c>
-      <c r="C53" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -956,10 +956,10 @@
         <v>64</v>
       </c>
       <c r="B54" s="1">
+        <v>32</v>
+      </c>
+      <c r="C54" s="1">
         <v>33</v>
-      </c>
-      <c r="C54" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -967,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
         <v>34</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -978,10 +978,10 @@
         <v>66</v>
       </c>
       <c r="B56" s="1">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
         <v>34</v>
-      </c>
-      <c r="C56" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -989,10 +989,10 @@
         <v>67</v>
       </c>
       <c r="B57" s="1">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1">
         <v>34</v>
-      </c>
-      <c r="C57" s="1">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -1000,10 +1000,10 @@
         <v>68</v>
       </c>
       <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
         <v>35</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1022,10 +1022,10 @@
         <v>70</v>
       </c>
       <c r="B60" s="1">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
         <v>36</v>
-      </c>
-      <c r="C60" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1033,10 +1033,10 @@
         <v>71</v>
       </c>
       <c r="B61" s="1">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1">
         <v>36</v>
-      </c>
-      <c r="C61" s="1">
-        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1044,10 +1044,10 @@
         <v>72</v>
       </c>
       <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
         <v>37</v>
-      </c>
-      <c r="C62" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -1055,10 +1055,10 @@
         <v>73</v>
       </c>
       <c r="B63" s="1">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1">
         <v>37</v>
-      </c>
-      <c r="C63" s="1">
-        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -1066,10 +1066,10 @@
         <v>74</v>
       </c>
       <c r="B64" s="1">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
         <v>37</v>
-      </c>
-      <c r="C64" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -1077,10 +1077,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
         <v>38</v>
-      </c>
-      <c r="C65" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -1110,10 +1110,10 @@
         <v>78</v>
       </c>
       <c r="B68" s="1">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
         <v>39</v>
-      </c>
-      <c r="C68" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -1132,10 +1132,10 @@
         <v>80</v>
       </c>
       <c r="B70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1">
         <v>40</v>
-      </c>
-      <c r="C70" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -1143,10 +1143,10 @@
         <v>81</v>
       </c>
       <c r="B71" s="1">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1">
         <v>40</v>
-      </c>
-      <c r="C71" s="1">
-        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -1154,10 +1154,10 @@
         <v>82</v>
       </c>
       <c r="B72" s="1">
+        <v>39</v>
+      </c>
+      <c r="C72" s="1">
         <v>40</v>
-      </c>
-      <c r="C72" s="1">
-        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -1176,10 +1176,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
         <v>23</v>
-      </c>
-      <c r="C74" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -1187,10 +1187,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1">
+        <v>45</v>
+      </c>
+      <c r="C75" s="1">
         <v>46</v>
-      </c>
-      <c r="C75" s="1">
-        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
